--- a/Platas/Balance.xlsx
+++ b/Platas/Balance.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Julio" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Agosto" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Septiembre" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Octubre" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Noviembre" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t xml:space="preserve">Concepto</t>
   </si>
@@ -75,20 +77,42 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Deposito Sanford</t>
+    <t xml:space="preserve">Deposito Sanford (Patos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deposito Sanford (Robots)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja Patos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estampados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burguer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro parte pago Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferecia de Zanfor (Robots)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago Robots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* \-??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(\$* #,##0.0_);_(\$* \(#,##0.0\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="[$$-340A]#,##0;[RED][$$-340A]&quot; -&quot;#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -176,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +250,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,13 +350,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,11 +610,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,17 +743,17 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -761,7 +797,7 @@
         <v>1787069</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>17</v>
       </c>
@@ -777,6 +813,54 @@
       <c r="F3" s="3" t="n">
         <f aca="false">B3*D3*C3</f>
         <v>-140000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>-1500000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <f aca="false">B4*D4*C4</f>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>-590</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <f aca="false">B5*D5*C5</f>
+        <v>-590</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="3" t="n">
+        <f aca="false">B6*D6*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="3" t="n">
+        <f aca="false">B7*D7*C7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,8 +872,8 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="n">
-        <f aca="false">SUM(F2:F3)</f>
-        <v>1647069</v>
+        <f aca="false">SUM(F2:F9)</f>
+        <v>146479</v>
       </c>
     </row>
   </sheetData>
@@ -801,4 +885,310 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.0714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>146479</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="false">B2*D2*C2</f>
+        <v>146479</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>-2060</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="false">B3*D3*C3</f>
+        <v>-29416.8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>-14600</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <f aca="false">B4*D4*C4</f>
+        <v>-14600</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <f aca="false">B5*D5*C5</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>1290914</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <f aca="false">B6*D6*C6</f>
+        <v>1290914</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="3" t="n">
+        <f aca="false">B7*D7*C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="n">
+        <f aca="false">SUM(F2:F9)</f>
+        <v>1383376.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <f aca="false">1383376</f>
+        <v>1383376</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="false">B2*D2*C2</f>
+        <v>1383376</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="false">B3*D3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="13"/>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="13"/>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="13"/>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="3" t="n">
+        <f aca="false">B7*D7*C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="n">
+        <f aca="false">SUM(F2:F9)</f>
+        <v>1383376</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Platas/Balance.xlsx
+++ b/Platas/Balance.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing\Desktop\dackcl\Platas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Julio" sheetId="1" r:id="rId1"/>
@@ -597,17 +597,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625"/>
-    <col min="2" max="2" width="13.42578125"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125"/>
     <col min="4" max="4" width="13.28515625"/>
     <col min="5" max="5" width="15.5703125"/>
-    <col min="6" max="6" width="13.140625"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
     <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
@@ -978,7 +978,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
